--- a/课程信息整合.xlsx
+++ b/课程信息整合.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g4560\Desktop\港城莞CS资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047EBB27-78C1-4D24-8A9A-E1E8A94E1F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF7CEB6-0000-4CC6-932D-A3B44D6CA1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0658A00C-824C-444D-9A82-7D79A9DB5087}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>Lecture - 1033</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梁维发(Weifa LIANG)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Thursday
 10:30 to 11:20</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://scholars.cityu.edu.hk/person/junhuhou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://scholars.cityu.edu.hk/person/weliang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,10 +209,6 @@
   </si>
   <si>
     <t>minming.li@cityu.edu.hk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weliang@cityu.edu.hk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,6 +452,294 @@
   </si>
   <si>
     <t>第四版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁维发(Weifa LIANG)
+HUANG Zhian
+ZHANG Yizhun(Project Markor)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weliang@cityu.edu.hk
+huang.za@cityu-dg.edu.cn
+yzhang5624-c@my.cityu.edu.hk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeadTA:Mr. HaoyuChen   haoychen3-c@my.cityu.edu.hk
+TA:Ms. ShuyanZhai
+ TA:Mr. Shengzhuang Chen
+ TA:Mr. Yunqiao Yang
+ TA:Mr. MianZou
+ TA:Ms. WenWen
+Tutorial Lead: Mr. Jinglong Yang
+ Tutorial Lead: Dr. Zhan Zhuang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT是按照第七版做的，不过现在已经有第八版了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.课内表现10%,积极发言+5%
+2.Assignment 3*5%  Week 4, 7, 10 
+3.Quiz 15%             Week 9 (3 hours)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.final exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://scholars.cityu.edu.hk/person/junhuhou
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Office: Room 550, Academic Building 4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <family val="2"/>
+        <charset val="2"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Dr. ZHU Zhiyu(zhiyuzhu2-c@my.cityu.edu.hk) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <family val="2"/>
+        <charset val="2"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Dr. ZENG Yiming (ym.zeng@my.cityu.edu.hk)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <family val="2"/>
+        <charset val="2"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mr. ZHANG Yifan ( yzhang3362-c@my.cityu.edu.hk)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <family val="2"/>
+        <charset val="2"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mr. REN Siyu (siyuren2@cityu.edu.hk)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <family val="2"/>
+        <charset val="2"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mr. TANG Yingzhi ( yztang4-c@my.cityu.edu.hk)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <family val="2"/>
+        <charset val="2"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ms. YOU Meng ( mengyou2-c@my.cityu.edu.hk)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据PPT更新：
+1.Computer Graphics: Principles and Practice, Third Edition, J. Hughes, A. van Dam, M. McGuire, D. Sklar, J. Foley, S. Feiner, and K. Akeley, Addison Wesley, 2014.
+2.Introduction to Computer Graphics ,J. Foley, A. van Dam, S. Feiner, J. Hughes, and R. Phillips, 
+Addison Wesley, 1994.
+3.Introduction to Computer Graphics, J. Foley, A. van Dam, S. Feiner, J. Hughes, and R. Phillips, 
+Addison Wesley, 1994.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Final examination 60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Course project 25%
+ Midterm quiz 15%(10/28/2024)，closed books/noted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1：哪些有project？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Problem sets
+2*10%,week6&amp;13(15/10,3/12)
+2.midterm-quiz 20%
+week7,22/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q2：哪些有midterm quiz?什么时候，考察范围？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>week7 .22/10/2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 9 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/28/2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3次assignment:3*5%
+week4&amp;8&amp;12
+2.Project:Week10 .8%
+3.Research report week13 .7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final exam 70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial exercise 10%
+assignments 30%
+project 30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network(project+research_report)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine_learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assignment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教材进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT预习与复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提纲整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录音稿整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +747,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +788,35 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <family val="2"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -592,7 +897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,44 +928,65 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -678,6 +1004,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>181102</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552EB746-71FB-4F68-A88E-53C6B57B1724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23465117" y="392206"/>
+          <a:ext cx="2220573" cy="1692087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -977,197 +1352,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9EB333-39B2-47C0-9473-5DDD430F4527}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.125" customWidth="1"/>
     <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
     <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="11" max="11" width="28.125" customWidth="1"/>
-    <col min="12" max="12" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
+    <col min="12" max="12" width="28.125" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
-        <v>60</v>
-      </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="D3" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="4" t="s">
+      <c r="C4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="L4" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="D5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5">
+      <c r="L5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:16" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="4" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" t="s">
-        <v>69</v>
+      <c r="L6" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6">
+        <v>66</v>
+      </c>
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:16" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1180,35 +1575,38 @@
         <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7">
+      <c r="L7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1218,75 +1616,85 @@
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:16" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -1295,73 +1703,157 @@
         <v>5</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="K11" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="J11" s="2"/>
+      <c r="L11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" t="s">
         <v>66</v>
       </c>
-      <c r="M11" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11">
+      <c r="O11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1371,7 +1863,7 @@
     <hyperlink ref="D5" r:id="rId4" xr:uid="{A688070B-32FF-43E7-9683-10667FB67E8E}"/>
     <hyperlink ref="D11" r:id="rId5" xr:uid="{C6EBEA3C-B153-4FAB-AA5A-8EC47C3A09C9}"/>
     <hyperlink ref="E5" r:id="rId6" xr:uid="{20A7134E-1733-447E-974E-E44A57444D01}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{37099BC1-A530-47E8-AAA0-C418671B32AC}"/>
+    <hyperlink ref="E9" r:id="rId7" display="weliang@cityu.edu.hk" xr:uid="{37099BC1-A530-47E8-AAA0-C418671B32AC}"/>
     <hyperlink ref="E3" r:id="rId8" xr:uid="{E4FC3A50-81FF-43B5-BED4-3C8DE21A9F92}"/>
     <hyperlink ref="E7" r:id="rId9" xr:uid="{D0A23C82-965E-4CF4-82F3-21194F3F6922}"/>
     <hyperlink ref="E11" r:id="rId10" xr:uid="{2513005D-DD5F-42C9-BD54-94AA0C271230}"/>
@@ -1382,5 +1874,6 @@
     <hyperlink ref="F7" r:id="rId15" xr:uid="{2AA6C0E8-96F9-4A79-80F1-9CEB642BA5E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>